--- a/whole population.xlsx
+++ b/whole population.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21652" windowHeight="11055" firstSheet="4" activeTab="8"/>
+    <workbookView windowWidth="21652" windowHeight="11055" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="whole" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="668">
   <si>
     <t>Year</t>
   </si>
@@ -2051,22 +2051,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2570,133 +2555,133 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2707,11 +2692,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3880,8 +3865,8 @@
   <sheetPr/>
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4606,8 +4591,8 @@
       <c r="E17" s="2">
         <v>397979</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>86</v>
+      <c r="F17" s="2">
+        <v>4.77412</v>
       </c>
       <c r="G17" s="2">
         <v>2.87436</v>
@@ -12005,7 +11990,7 @@
   <sheetPr/>
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
